--- a/exportPP.xlsx
+++ b/exportPP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t/>
   </si>
@@ -56,7 +56,7 @@
     <t>2024-10-16</t>
   </si>
   <si>
-    <t>trễ hạ</t>
+    <t>trễ hạn</t>
   </si>
   <si>
     <t>2000.0</t>
@@ -71,6 +71,9 @@
     <t>2024-10-14</t>
   </si>
   <si>
+    <t>hư</t>
+  </si>
+  <si>
     <t>9000.0</t>
   </si>
   <si>
@@ -83,7 +86,7 @@
     <t>2024-10-09</t>
   </si>
   <si>
-    <t>mấ</t>
+    <t>mất</t>
   </si>
   <si>
     <t>47000.0</t>
@@ -98,10 +101,62 @@
     <t>2024-09-08</t>
   </si>
   <si>
-    <t>ướ</t>
+    <t>ướt</t>
   </si>
   <si>
     <t>22500.0</t>
+  </si>
+  <si>
+    <t>302
+301</t>
+  </si>
+  <si>
+    <t>thu01
+thu03</t>
+  </si>
+  <si>
+    <t>2024-11-18
+2024-11-17</t>
+  </si>
+  <si>
+    <t>nhàu sách, rách bìa, trả trễ
+hư sách, ướt</t>
+  </si>
+  <si>
+    <t>22500.0
+25000.0</t>
+  </si>
+  <si>
+    <t>cua200</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>rách bìa</t>
+  </si>
+  <si>
+    <t>2700.0</t>
+  </si>
+  <si>
+    <t>301
+124</t>
+  </si>
+  <si>
+    <t>thu03
+thu124</t>
+  </si>
+  <si>
+    <t>2024-11-25
+2024-11-25</t>
+  </si>
+  <si>
+    <t>nhàu sách
+trả trễ, ướt</t>
+  </si>
+  <si>
+    <t>12500.0
+17500.0</t>
   </si>
 </sst>
 </file>
@@ -152,7 +207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:I8"/>
+  <dimension ref="A3:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -164,7 +219,7 @@
     <col min="4" max="4" width="18.0625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="20.859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.57421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.921875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.2421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="9.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -252,10 +307,10 @@
         <v>18</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>9000.0</v>
@@ -272,19 +327,19 @@
         <v>3.0</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n" s="0">
         <v>47000.0</v>
@@ -301,22 +356,109 @@
         <v>4.0</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n" s="0">
         <v>22500.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>112233.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>47500.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>533.0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>112233.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>538.0</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>2700.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>714.0</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>123456.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>53802.0</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>30000.0</v>
       </c>
     </row>
   </sheetData>
